--- a/assets/download/format_import_siswa.xlsx
+++ b/assets/download/format_import_siswa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t xml:space="preserve">no </t>
   </si>
@@ -60,6 +60,36 @@
   </si>
   <si>
     <t>Laki-laki</t>
+  </si>
+  <si>
+    <t>nama orang tua</t>
+  </si>
+  <si>
+    <t>no telepon</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Ratna</t>
+  </si>
+  <si>
+    <t>Jl. Anggur</t>
+  </si>
+  <si>
+    <t>ratna</t>
+  </si>
+  <si>
+    <t>Iben</t>
+  </si>
+  <si>
+    <t>Jl. Anggrek</t>
+  </si>
+  <si>
+    <t>iben</t>
   </si>
 </sst>
 </file>
@@ -97,9 +127,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -108,6 +135,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,78 +419,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>123</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>321</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
